--- a/data/trans_camb/P8_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P8_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>-1,3</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 2,68</t>
+          <t>-3,81; 2,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 1,43</t>
+          <t>-4,06; 2,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 2,99</t>
+          <t>-3,6; 3,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 4,33</t>
+          <t>-3,42; 3,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 3,38</t>
+          <t>-0,06; 6,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 2,56</t>
+          <t>-1,26; 5,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 3,36</t>
+          <t>-2,91; 3,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 6,81</t>
+          <t>-3,38; 2,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,02</t>
+          <t>-1,92; 4,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 1,14</t>
+          <t>-2,26; 5,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 2,26</t>
+          <t>-3,41; 4,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 4,82</t>
+          <t>-5,41; 2,77</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 2,3</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 1,72</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 2,83</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 3,42</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-0,58; 4,47</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 2,98</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,68%</t>
+          <t>-5,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-15,74%</t>
+          <t>-10,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,84%</t>
+          <t>42,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,73%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,3%</t>
+          <t>-3,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,36%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-9,97%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>-10,18%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-1,72%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-6,53%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>9,33%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,01; 42,71</t>
+          <t>-38,15; 37,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 21,89</t>
+          <t>-40,3; 37,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,78; 47,43</t>
+          <t>-35,54; 46,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 68,76</t>
+          <t>-34,22; 50,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 40,79</t>
+          <t>-1,36; 104,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,12; 31,14</t>
+          <t>-11,61; 68,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 41,62</t>
+          <t>-27,6; 42,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 82,28</t>
+          <t>-30,75; 30,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 26,22</t>
+          <t>-17,85; 52,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-31,64; 15,83</t>
+          <t>-20,89; 60,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 29,0</t>
+          <t>-26,57; 48,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 62,08</t>
+          <t>-34,93; 28,06</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-23,15; 27,24</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-25,94; 22,35</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-15,64; 35,05</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-16,49; 42,9</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-6,27; 52,19</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-16,56; 31,91</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>2,14</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,95</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,69</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 4,99</t>
+          <t>-2,37; 5,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 6,51</t>
+          <t>-0,5; 6,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 5,99</t>
+          <t>-1,13; 5,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 4,16</t>
+          <t>-1,09; 6,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 4,15</t>
+          <t>-2,45; 7,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,83</t>
+          <t>0,55; 10,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,38</t>
+          <t>-2,52; 4,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 9,14</t>
+          <t>-2,8; 3,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,42</t>
+          <t>-2,14; 4,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 4,28</t>
+          <t>-0,36; 7,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,91</t>
+          <t>-2,94; 7,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 4,95</t>
+          <t>-4,35; 8,37</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 3,46</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 4,08</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 4,01</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 5,62</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 6,16</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 7,67</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>44,2%</t>
+          <t>43,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>30,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>40,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>79,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,43%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>50,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>22,92%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>17,46%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>25,05%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>22,34%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>45,21%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>21,18%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>47,22%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,17; 98,45</t>
+          <t>-32,31; 97,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 131,51</t>
+          <t>-7,6; 130,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 121,58</t>
+          <t>-14,65; 109,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,25; 80,53</t>
+          <t>-14,46; 136,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 81,01</t>
+          <t>-24,39; 107,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,42; 75,45</t>
+          <t>1,77; 253,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 89,94</t>
+          <t>-29,08; 85,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,24; 167,69</t>
+          <t>-34,95; 76,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 65,79</t>
+          <t>-28,37; 79,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 79,09</t>
+          <t>-6,72; 137,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 71,66</t>
+          <t>-26,7; 92,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 92,16</t>
+          <t>-37,98; 147,16</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-17,97; 60,23</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-10,06; 76,94</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-13,2; 71,7</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 98,46</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-14,37; 75,63</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 126,79</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,87</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,02</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>4,63</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 3,97</t>
+          <t>-7,71; 4,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 8,46</t>
+          <t>-4,76; 7,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 8,74</t>
+          <t>-5,1; 8,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-4,52; 11,67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-5,13; 3,24</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 6,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 9,99</t>
+          <t>-4,35; 3,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-2,84; 6,48</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 9,9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 15,28</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-5,06; 2,07</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 5,54</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 7,26</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 2,44</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 5,47</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 6,95</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 10,17</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-23,81%</t>
+          <t>-18,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>40,92%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-25,0%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>101,48%</t>
+          <t>-16,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>44,41%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>101,19%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>157,66%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-24,18%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>24,6%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>48,75%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-17,96%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>26,4%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>46,9%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>77,74%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,19; 92,6</t>
+          <t>-69,93; 115,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,89; 171,84</t>
+          <t>-44,61; 164,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,1; 178,44</t>
+          <t>-44,52; 168,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-42,76; 234,58</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-86,6; 302,79</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,01; 364,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 572,52</t>
+          <t>-82,62; 304,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-59,54; 411,02</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-29,9; 536,61</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-16,55; 868,41</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-64,82; 49,84</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-31,59; 146,62</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-14,84; 193,86</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-60,08; 61,55</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-33,75; 126,34</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-16,6; 173,54</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-12,94; 240,54</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,33</t>
+          <t>-2,09; 2,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,87</t>
+          <t>-1,43; 2,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,3</t>
+          <t>-1,15; 3,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,94</t>
+          <t>-0,95; 3,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,35</t>
+          <t>-0,36; 5,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,35</t>
+          <t>-0,06; 5,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,06</t>
+          <t>-1,72; 2,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,29</t>
+          <t>-1,98; 2,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,59</t>
+          <t>-0,85; 3,43</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,92</t>
+          <t>0,45; 5,73</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,6</t>
+          <t>-2,09; 3,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,98</t>
+          <t>-4,28; 2,54</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 1,6</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 1,99</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 2,58</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 3,84</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 3,8</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 3,44</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,85%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>53,55%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>-4,63%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>7,19%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>15,29%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>27,75%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>17,98%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>10,68%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 36,07</t>
+          <t>-24,3; 32,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 45,87</t>
+          <t>-16,78; 46,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 53,66</t>
+          <t>-13,9; 50,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 62,53</t>
+          <t>-12,36; 57,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 33,77</t>
+          <t>-3,94; 69,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 33,55</t>
+          <t>-0,77; 72,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 43,8</t>
+          <t>-19,03; 37,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,57; 102,9</t>
+          <t>-22,28; 33,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 22,49</t>
+          <t>-9,59; 50,74</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 27,16</t>
+          <t>4,6; 82,09</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 39,23</t>
+          <t>-17,31; 41,55</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,37; 72,23</t>
+          <t>-30,35; 24,66</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-16,93; 22,83</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; 28,61</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 36,57</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 55,17</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 44,51</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-9,96; 37,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
